--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N2">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q2">
-        <v>0.1404819589071111</v>
+        <v>0.4699261113884445</v>
       </c>
       <c r="R2">
-        <v>1.264337630164</v>
+        <v>4.229335002496001</v>
       </c>
       <c r="S2">
-        <v>0.03606124816080065</v>
+        <v>0.04567831138245274</v>
       </c>
       <c r="T2">
-        <v>0.03606124816080065</v>
+        <v>0.04567831138245274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N3">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q3">
-        <v>0.04314345952466667</v>
+        <v>0.3947610195013334</v>
       </c>
       <c r="R3">
-        <v>0.3882911357220001</v>
+        <v>3.552849175512</v>
       </c>
       <c r="S3">
-        <v>0.01107478150602376</v>
+        <v>0.03837202558750986</v>
       </c>
       <c r="T3">
-        <v>0.01107478150602376</v>
+        <v>0.03837202558750986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>4.103153</v>
       </c>
       <c r="I4">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J4">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N4">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q4">
-        <v>2.054215283284889</v>
+        <v>3.718390313260444</v>
       </c>
       <c r="R4">
-        <v>18.487937549564</v>
+        <v>33.465512819344</v>
       </c>
       <c r="S4">
-        <v>0.5273101804853607</v>
+        <v>0.361439354941925</v>
       </c>
       <c r="T4">
-        <v>0.5273101804853607</v>
+        <v>0.361439354941925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.103153</v>
       </c>
       <c r="I5">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J5">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N5">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q5">
-        <v>0.6308707154913333</v>
+        <v>3.123630535510333</v>
       </c>
       <c r="R5">
-        <v>5.677836439422</v>
+        <v>28.112674819593</v>
       </c>
       <c r="S5">
-        <v>0.1619423989080156</v>
+        <v>0.3036268144862384</v>
       </c>
       <c r="T5">
-        <v>0.1619423989080156</v>
+        <v>0.3036268144862383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H6">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I6">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J6">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N6">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q6">
-        <v>0.7856547284786667</v>
+        <v>1.402691634680889</v>
       </c>
       <c r="R6">
-        <v>7.070892556307999</v>
+        <v>12.624224712128</v>
       </c>
       <c r="S6">
-        <v>0.2016749364315813</v>
+        <v>0.1363460844369901</v>
       </c>
       <c r="T6">
-        <v>0.2016749364315813</v>
+        <v>0.1363460844369901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H7">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I7">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J7">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N7">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q7">
-        <v>0.241282676026</v>
+        <v>1.178329882790667</v>
       </c>
       <c r="R7">
-        <v>2.171544084234</v>
+        <v>10.604968945116</v>
       </c>
       <c r="S7">
-        <v>0.0619364545082181</v>
+        <v>0.114537409164884</v>
       </c>
       <c r="T7">
-        <v>0.0619364545082181</v>
+        <v>0.114537409164884</v>
       </c>
     </row>
   </sheetData>
